--- a/data/excel/testm_0_snr_10.xlsx
+++ b/data/excel/testm_0_snr_10.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="testm_0_snr_10" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -637,8 +637,8 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -653,7 +653,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:multiLvlStrRef>
               <c:f>testm_0_snr_10!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
@@ -712,8 +712,8 @@
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>testm_0_snr_10!$C$2:$C$9</c:f>
               <c:numCache>
@@ -745,7 +745,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -761,7 +762,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:multiLvlStrRef>
               <c:f>testm_0_snr_10!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
@@ -820,8 +821,8 @@
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>testm_0_snr_10!$D$2:$D$9</c:f>
               <c:numCache>
@@ -853,29 +854,26 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="39029760"/>
-        <c:axId val="65323008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="39029760"/>
+        <c:axId val="83735680"/>
+        <c:axId val="75862400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83735680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65323008"/>
+        <c:crossAx val="75862400"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="65323008"/>
+        <c:axId val="75862400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,9 +905,9 @@
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39029760"/>
+        <c:crossAx val="83735680"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -922,7 +920,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -952,12 +950,12 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:cat>
+          <c:xVal>
             <c:multiLvlStrRef>
               <c:f>testm_0_snr_10!$A$2:$B$9</c:f>
               <c:multiLvlStrCache>
@@ -1016,8 +1014,8 @@
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>testm_0_snr_10!$E$2:$E$9</c:f>
               <c:numCache>
@@ -1049,29 +1047,26 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="97550720"/>
-        <c:axId val="98090368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="97550720"/>
+        <c:axId val="70355968"/>
+        <c:axId val="76045696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98090368"/>
+        <c:crossAx val="76045696"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="98090368"/>
+        <c:axId val="76045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,9 +1093,9 @@
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97550720"/>
+        <c:crossAx val="70355968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -1113,7 +1108,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1472,7 +1467,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2098,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
